--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-06-29.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-06-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2743"/>
+  <dimension ref="A1:G2690"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72087,10 +72087,8 @@
       <c r="D2634" t="inlineStr"/>
       <c r="E2634" t="inlineStr"/>
       <c r="F2634" t="inlineStr"/>
-      <c r="G2634" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G2634" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2635">
@@ -72116,10 +72114,8 @@
       </c>
       <c r="E2635" t="inlineStr"/>
       <c r="F2635" t="inlineStr"/>
-      <c r="G2635" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2635" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2636">
@@ -72145,10 +72141,8 @@
       </c>
       <c r="E2636" t="inlineStr"/>
       <c r="F2636" t="inlineStr"/>
-      <c r="G2636" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2636" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2637">
@@ -72174,77 +72168,83 @@
       </c>
       <c r="E2637" t="inlineStr"/>
       <c r="F2637" t="inlineStr"/>
-      <c r="G2637" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2637" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2638">
       <c r="A2638" t="inlineStr">
         <is>
-          <t>Friday June 20 2025</t>
-        </is>
-      </c>
-      <c r="B2638" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B2638" t="inlineStr">
+        <is>
+          <t>5-Year Note Auction</t>
+        </is>
+      </c>
       <c r="C2638" t="inlineStr"/>
-      <c r="D2638" t="inlineStr"/>
+      <c r="D2638" t="inlineStr">
+        <is>
+          <t>4.071%</t>
+        </is>
+      </c>
       <c r="E2638" t="inlineStr"/>
       <c r="F2638" t="inlineStr"/>
-      <c r="G2638" t="inlineStr"/>
+      <c r="G2638" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2639">
       <c r="A2639" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2639" t="inlineStr">
         <is>
-          <t>Philadelphia Fed Manufacturing IndexJUN</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="C2639" t="inlineStr"/>
       <c r="D2639" t="inlineStr">
         <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="E2639" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F2639" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>0.144%</t>
+        </is>
+      </c>
+      <c r="E2639" t="inlineStr"/>
+      <c r="F2639" t="inlineStr"/>
       <c r="G2639" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2640">
-      <c r="A2640" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
+      <c r="A2640" t="inlineStr"/>
       <c r="B2640" t="inlineStr">
         <is>
-          <t>Philly Fed Business ConditionsJUN</t>
+          <t>Building Permits FinalMAY</t>
         </is>
       </c>
       <c r="C2640" t="inlineStr"/>
       <c r="D2640" t="inlineStr">
         <is>
-          <t>47.2</t>
-        </is>
-      </c>
-      <c r="E2640" t="inlineStr"/>
-      <c r="F2640" t="inlineStr"/>
+          <t>1.422M</t>
+        </is>
+      </c>
+      <c r="E2640" t="inlineStr">
+        <is>
+          <t>1.393M</t>
+        </is>
+      </c>
+      <c r="F2640" t="inlineStr">
+        <is>
+          <t>1.393M</t>
+        </is>
+      </c>
       <c r="G2640" t="inlineStr">
         <is>
           <t>3</t>
@@ -72252,24 +72252,28 @@
       </c>
     </row>
     <row r="2641">
-      <c r="A2641" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
+      <c r="A2641" t="inlineStr"/>
       <c r="B2641" t="inlineStr">
         <is>
-          <t>Philly Fed CAPEX IndexJUN</t>
+          <t>Building Permits MoM FinalMAY</t>
         </is>
       </c>
       <c r="C2641" t="inlineStr"/>
       <c r="D2641" t="inlineStr">
         <is>
-          <t>27.00</t>
-        </is>
-      </c>
-      <c r="E2641" t="inlineStr"/>
-      <c r="F2641" t="inlineStr"/>
+          <t>-4%</t>
+        </is>
+      </c>
+      <c r="E2641" t="inlineStr">
+        <is>
+          <t>-2%</t>
+        </is>
+      </c>
+      <c r="F2641" t="inlineStr">
+        <is>
+          <t>-2.0%</t>
+        </is>
+      </c>
       <c r="G2641" t="inlineStr">
         <is>
           <t>3</t>
@@ -72279,50 +72283,34 @@
     <row r="2642">
       <c r="A2642" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2642" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentJUN</t>
-        </is>
-      </c>
+          <t>Thursday June 26 2025</t>
+        </is>
+      </c>
+      <c r="B2642" t="inlineStr"/>
       <c r="C2642" t="inlineStr"/>
-      <c r="D2642" t="inlineStr">
-        <is>
-          <t>16.5</t>
-        </is>
-      </c>
+      <c r="D2642" t="inlineStr"/>
       <c r="E2642" t="inlineStr"/>
       <c r="F2642" t="inlineStr"/>
-      <c r="G2642" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2642" t="inlineStr"/>
     </row>
     <row r="2643">
       <c r="A2643" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2643" t="inlineStr">
         <is>
-          <t>Philly Fed New OrdersJUN</t>
+          <t>Fed Barkin Speech</t>
         </is>
       </c>
       <c r="C2643" t="inlineStr"/>
-      <c r="D2643" t="inlineStr">
-        <is>
-          <t>7.5</t>
-        </is>
-      </c>
+      <c r="D2643" t="inlineStr"/>
       <c r="E2643" t="inlineStr"/>
       <c r="F2643" t="inlineStr"/>
       <c r="G2643" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -72334,43 +72322,47 @@
       </c>
       <c r="B2644" t="inlineStr">
         <is>
-          <t>Philly Fed Prices PaidJUN</t>
+          <t>Durable Goods Orders MoMMAY</t>
         </is>
       </c>
       <c r="C2644" t="inlineStr"/>
       <c r="D2644" t="inlineStr">
         <is>
-          <t>59.80</t>
+          <t>-6.3%</t>
         </is>
       </c>
       <c r="E2644" t="inlineStr"/>
-      <c r="F2644" t="inlineStr"/>
+      <c r="F2644" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G2644" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2645">
       <c r="A2645" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2645" t="inlineStr">
         <is>
-          <t>CB Leading Index MoMMAY</t>
+          <t>GDP Growth Rate QoQ FinalQ1</t>
         </is>
       </c>
       <c r="C2645" t="inlineStr"/>
       <c r="D2645" t="inlineStr">
         <is>
-          <t>-1%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="E2645" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F2645" t="inlineStr">
@@ -72380,132 +72372,184 @@
       </c>
       <c r="G2645" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2646">
       <c r="A2646" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2646" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJUN/20</t>
+          <t>Chicago Fed National Activity IndexMAY</t>
         </is>
       </c>
       <c r="C2646" t="inlineStr"/>
       <c r="D2646" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="E2646" t="inlineStr"/>
-      <c r="F2646" t="inlineStr"/>
+      <c r="F2646" t="inlineStr">
+        <is>
+          <t>-0.1</t>
+        </is>
+      </c>
       <c r="G2646" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2647">
       <c r="A2647" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2647" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJUN/20</t>
+          <t>Corporate Profits QoQ FinalQ1</t>
         </is>
       </c>
       <c r="C2647" t="inlineStr"/>
       <c r="D2647" t="inlineStr">
         <is>
-          <t>555</t>
-        </is>
-      </c>
-      <c r="E2647" t="inlineStr"/>
-      <c r="F2647" t="inlineStr"/>
+          <t>5.9%</t>
+        </is>
+      </c>
+      <c r="E2647" t="inlineStr">
+        <is>
+          <t>-3.6%</t>
+        </is>
+      </c>
+      <c r="F2647" t="inlineStr">
+        <is>
+          <t>-3.6%</t>
+        </is>
+      </c>
       <c r="G2647" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2648">
       <c r="A2648" t="inlineStr">
         <is>
-          <t>Saturday June 21 2025</t>
-        </is>
-      </c>
-      <c r="B2648" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B2648" t="inlineStr">
+        <is>
+          <t>Durable Goods Orders Ex Transp MoMMAY</t>
+        </is>
+      </c>
       <c r="C2648" t="inlineStr"/>
-      <c r="D2648" t="inlineStr"/>
+      <c r="D2648" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="E2648" t="inlineStr"/>
-      <c r="F2648" t="inlineStr"/>
-      <c r="G2648" t="inlineStr"/>
+      <c r="F2648" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="G2648" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2649">
       <c r="A2649" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2649" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJUN/18</t>
+          <t>GDP Price Index QoQ FinalQ1</t>
         </is>
       </c>
       <c r="C2649" t="inlineStr"/>
       <c r="D2649" t="inlineStr">
         <is>
-          <t>$6.68T</t>
-        </is>
-      </c>
-      <c r="E2649" t="inlineStr"/>
-      <c r="F2649" t="inlineStr"/>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="E2649" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
+      <c r="F2649" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="G2649" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2650">
       <c r="A2650" t="inlineStr">
         <is>
-          <t>Monday June 23 2025</t>
-        </is>
-      </c>
-      <c r="B2650" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B2650" t="inlineStr">
+        <is>
+          <t>Goods Trade Balance AdvMAY</t>
+        </is>
+      </c>
       <c r="C2650" t="inlineStr"/>
-      <c r="D2650" t="inlineStr"/>
+      <c r="D2650" t="inlineStr">
+        <is>
+          <t>$-87.62B</t>
+        </is>
+      </c>
       <c r="E2650" t="inlineStr"/>
-      <c r="F2650" t="inlineStr"/>
-      <c r="G2650" t="inlineStr"/>
+      <c r="F2650" t="inlineStr">
+        <is>
+          <t>$-81.0B</t>
+        </is>
+      </c>
+      <c r="G2650" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2651">
       <c r="A2651" t="inlineStr">
         <is>
-          <t>07:15 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2651" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJUN</t>
+          <t>Initial Jobless ClaimsJUN/21</t>
         </is>
       </c>
       <c r="C2651" t="inlineStr"/>
       <c r="D2651" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>245K</t>
         </is>
       </c>
       <c r="E2651" t="inlineStr"/>
       <c r="F2651" t="inlineStr">
         <is>
-          <t>53.1</t>
+          <t>247.0K</t>
         </is>
       </c>
       <c r="G2651" t="inlineStr">
@@ -72517,24 +72561,24 @@
     <row r="2652">
       <c r="A2652" t="inlineStr">
         <is>
-          <t>07:15 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2652" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJUN</t>
+          <t>Retail Inventories Ex Autos MoM AdvMAY</t>
         </is>
       </c>
       <c r="C2652" t="inlineStr"/>
       <c r="D2652" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E2652" t="inlineStr"/>
       <c r="F2652" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G2652" t="inlineStr">
@@ -72546,24 +72590,24 @@
     <row r="2653">
       <c r="A2653" t="inlineStr">
         <is>
-          <t>07:15 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2653" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJUN</t>
+          <t>Wholesale Inventories MoM AdvMAY</t>
         </is>
       </c>
       <c r="C2653" t="inlineStr"/>
       <c r="D2653" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E2653" t="inlineStr"/>
       <c r="F2653" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G2653" t="inlineStr">
@@ -72575,80 +72619,88 @@
     <row r="2654">
       <c r="A2654" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2654" t="inlineStr">
         <is>
-          <t>Existing Home SalesMAY</t>
+          <t>Continuing Jobless ClaimsJUN/14</t>
         </is>
       </c>
       <c r="C2654" t="inlineStr"/>
       <c r="D2654" t="inlineStr">
         <is>
-          <t>4M</t>
+          <t>1945K</t>
         </is>
       </c>
       <c r="E2654" t="inlineStr"/>
       <c r="F2654" t="inlineStr">
         <is>
-          <t>3.9M</t>
+          <t>1947.0K</t>
         </is>
       </c>
       <c r="G2654" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2655">
       <c r="A2655" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2655" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMMAY</t>
+          <t>Core PCE Prices QoQ FinalQ1</t>
         </is>
       </c>
       <c r="C2655" t="inlineStr"/>
       <c r="D2655" t="inlineStr">
         <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="E2655" t="inlineStr"/>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="E2655" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="F2655" t="inlineStr">
         <is>
-          <t>-2.5%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="G2655" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2656">
       <c r="A2656" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2656" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders ex Defense MoMMAY</t>
         </is>
       </c>
       <c r="C2656" t="inlineStr"/>
       <c r="D2656" t="inlineStr">
         <is>
-          <t>4.240%</t>
+          <t>-7.5%</t>
         </is>
       </c>
       <c r="E2656" t="inlineStr"/>
-      <c r="F2656" t="inlineStr"/>
+      <c r="F2656" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G2656" t="inlineStr">
         <is>
           <t>3</t>
@@ -72658,22 +72710,30 @@
     <row r="2657">
       <c r="A2657" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2657" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>GDP Sales QoQ FinalQ1</t>
         </is>
       </c>
       <c r="C2657" t="inlineStr"/>
       <c r="D2657" t="inlineStr">
         <is>
-          <t>4.155%</t>
-        </is>
-      </c>
-      <c r="E2657" t="inlineStr"/>
-      <c r="F2657" t="inlineStr"/>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="E2657" t="inlineStr">
+        <is>
+          <t>-2.9%</t>
+        </is>
+      </c>
+      <c r="F2657" t="inlineStr">
+        <is>
+          <t>-2.9%</t>
+        </is>
+      </c>
       <c r="G2657" t="inlineStr">
         <is>
           <t>3</t>
@@ -72683,15 +72743,31 @@
     <row r="2658">
       <c r="A2658" t="inlineStr">
         <is>
-          <t>Tuesday June 24 2025</t>
-        </is>
-      </c>
-      <c r="B2658" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B2658" t="inlineStr">
+        <is>
+          <t>Jobless Claims 4-week AverageJUN/21</t>
+        </is>
+      </c>
       <c r="C2658" t="inlineStr"/>
-      <c r="D2658" t="inlineStr"/>
+      <c r="D2658" t="inlineStr">
+        <is>
+          <t>245.5K</t>
+        </is>
+      </c>
       <c r="E2658" t="inlineStr"/>
-      <c r="F2658" t="inlineStr"/>
-      <c r="G2658" t="inlineStr"/>
+      <c r="F2658" t="inlineStr">
+        <is>
+          <t>247.0K</t>
+        </is>
+      </c>
+      <c r="G2658" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2659">
       <c r="A2659" t="inlineStr">
@@ -72701,46 +72777,54 @@
       </c>
       <c r="B2659" t="inlineStr">
         <is>
-          <t>Current AccountQ1</t>
+          <t>Non Defense Goods Orders Ex AirMAY</t>
         </is>
       </c>
       <c r="C2659" t="inlineStr"/>
       <c r="D2659" t="inlineStr">
         <is>
-          <t>$-380B</t>
+          <t>-1.3%</t>
         </is>
       </c>
       <c r="E2659" t="inlineStr"/>
       <c r="F2659" t="inlineStr">
         <is>
-          <t>$ -380.0B</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G2659" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2660">
       <c r="A2660" t="inlineStr">
         <is>
-          <t>06:25 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2660" t="inlineStr">
         <is>
-          <t>Redbook YoYJUN/21</t>
+          <t>PCE Prices QoQ FinalQ1</t>
         </is>
       </c>
       <c r="C2660" t="inlineStr"/>
       <c r="D2660" t="inlineStr">
         <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="E2660" t="inlineStr"/>
-      <c r="F2660" t="inlineStr"/>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="E2660" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
+      <c r="F2660" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="G2660" t="inlineStr">
         <is>
           <t>3</t>
@@ -72750,29 +72834,33 @@
     <row r="2661">
       <c r="A2661" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2661" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYAPR</t>
+          <t>Real Consumer Spending QoQ FinalQ1</t>
         </is>
       </c>
       <c r="C2661" t="inlineStr"/>
       <c r="D2661" t="inlineStr">
         <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E2661" t="inlineStr"/>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="E2661" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
       <c r="F2661" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="G2661" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -72784,108 +72872,96 @@
       </c>
       <c r="B2662" t="inlineStr">
         <is>
-          <t>House Price IndexAPR</t>
+          <t>Fed Hammack Speech</t>
         </is>
       </c>
       <c r="C2662" t="inlineStr"/>
-      <c r="D2662" t="inlineStr">
-        <is>
-          <t>436.6</t>
-        </is>
-      </c>
+      <c r="D2662" t="inlineStr"/>
       <c r="E2662" t="inlineStr"/>
-      <c r="F2662" t="inlineStr">
-        <is>
-          <t>436.2</t>
-        </is>
-      </c>
+      <c r="F2662" t="inlineStr"/>
       <c r="G2662" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2663">
       <c r="A2663" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2663" t="inlineStr">
         <is>
-          <t>House Price Index MoMAPR</t>
+          <t>Pending Home Sales MoMMAY</t>
         </is>
       </c>
       <c r="C2663" t="inlineStr"/>
       <c r="D2663" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-6.3%</t>
         </is>
       </c>
       <c r="E2663" t="inlineStr"/>
       <c r="F2663" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="G2663" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2664">
       <c r="A2664" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2664" t="inlineStr">
         <is>
-          <t>House Price Index YoYAPR</t>
+          <t>Pending Home Sales YoYMAY</t>
         </is>
       </c>
       <c r="C2664" t="inlineStr"/>
       <c r="D2664" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>-2.5%</t>
         </is>
       </c>
       <c r="E2664" t="inlineStr"/>
       <c r="F2664" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>-2.1%</t>
         </is>
       </c>
       <c r="G2664" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2665">
       <c r="A2665" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2665" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMAPR</t>
+          <t>EIA Natural Gas Stocks ChangeJUN/20</t>
         </is>
       </c>
       <c r="C2665" t="inlineStr"/>
       <c r="D2665" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>95Bcf</t>
         </is>
       </c>
       <c r="E2665" t="inlineStr"/>
-      <c r="F2665" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="F2665" t="inlineStr"/>
       <c r="G2665" t="inlineStr">
         <is>
           <t>3</t>
@@ -72895,53 +72971,53 @@
     <row r="2666">
       <c r="A2666" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2666" t="inlineStr">
         <is>
-          <t>CB Consumer ConfidenceJUN</t>
+          <t>Kansas Fed Composite IndexJUN</t>
         </is>
       </c>
       <c r="C2666" t="inlineStr"/>
       <c r="D2666" t="inlineStr">
         <is>
-          <t>98.0</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="E2666" t="inlineStr"/>
       <c r="F2666" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="G2666" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2667">
       <c r="A2667" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2667" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexJUN</t>
+          <t>Kansas Fed Manufacturing IndexJUN</t>
         </is>
       </c>
       <c r="C2667" t="inlineStr"/>
       <c r="D2667" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="E2667" t="inlineStr"/>
       <c r="F2667" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="G2667" t="inlineStr">
@@ -72953,26 +73029,18 @@
     <row r="2668">
       <c r="A2668" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2668" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJUN</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2668" t="inlineStr"/>
-      <c r="D2668" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
+      <c r="D2668" t="inlineStr"/>
       <c r="E2668" t="inlineStr"/>
-      <c r="F2668" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
+      <c r="F2668" t="inlineStr"/>
       <c r="G2668" t="inlineStr">
         <is>
           <t>3</t>
@@ -72982,26 +73050,18 @@
     <row r="2669">
       <c r="A2669" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2669" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexJUN</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2669" t="inlineStr"/>
-      <c r="D2669" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
+      <c r="D2669" t="inlineStr"/>
       <c r="E2669" t="inlineStr"/>
-      <c r="F2669" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
+      <c r="F2669" t="inlineStr"/>
       <c r="G2669" t="inlineStr">
         <is>
           <t>3</t>
@@ -73016,15 +73076,11 @@
       </c>
       <c r="B2670" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>15-Year Mortgage RateJUN/26</t>
         </is>
       </c>
       <c r="C2670" t="inlineStr"/>
-      <c r="D2670" t="inlineStr">
-        <is>
-          <t>3.955%</t>
-        </is>
-      </c>
+      <c r="D2670" t="inlineStr"/>
       <c r="E2670" t="inlineStr"/>
       <c r="F2670" t="inlineStr"/>
       <c r="G2670" t="inlineStr">
@@ -73036,18 +73092,18 @@
     <row r="2671">
       <c r="A2671" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2671" t="inlineStr">
         <is>
-          <t>Money SupplyMAY</t>
+          <t>30-Year Mortgage RateJUN/26</t>
         </is>
       </c>
       <c r="C2671" t="inlineStr"/>
       <c r="D2671" t="inlineStr">
         <is>
-          <t>$21.86T</t>
+          <t>6.81%</t>
         </is>
       </c>
       <c r="E2671" t="inlineStr"/>
@@ -73061,187 +73117,199 @@
     <row r="2672">
       <c r="A2672" t="inlineStr">
         <is>
-          <t>Wednesday June 25 2025</t>
-        </is>
-      </c>
-      <c r="B2672" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B2672" t="inlineStr">
+        <is>
+          <t>7-Year Note Auction</t>
+        </is>
+      </c>
       <c r="C2672" t="inlineStr"/>
-      <c r="D2672" t="inlineStr"/>
+      <c r="D2672" t="inlineStr">
+        <is>
+          <t>4.194%</t>
+        </is>
+      </c>
       <c r="E2672" t="inlineStr"/>
       <c r="F2672" t="inlineStr"/>
-      <c r="G2672" t="inlineStr"/>
+      <c r="G2672" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2673">
       <c r="A2673" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2673" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJUN/20</t>
-        </is>
-      </c>
+          <t>Friday June 27 2025</t>
+        </is>
+      </c>
+      <c r="B2673" t="inlineStr"/>
       <c r="C2673" t="inlineStr"/>
-      <c r="D2673" t="inlineStr">
-        <is>
-          <t>-10.133M</t>
-        </is>
-      </c>
+      <c r="D2673" t="inlineStr"/>
       <c r="E2673" t="inlineStr"/>
       <c r="F2673" t="inlineStr"/>
-      <c r="G2673" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G2673" t="inlineStr"/>
     </row>
     <row r="2674">
       <c r="A2674" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2674" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJUN/20</t>
+          <t>Fed Balance SheetJUN/25</t>
         </is>
       </c>
       <c r="C2674" t="inlineStr"/>
-      <c r="D2674" t="inlineStr">
-        <is>
-          <t>6.84%</t>
-        </is>
-      </c>
+      <c r="D2674" t="inlineStr"/>
       <c r="E2674" t="inlineStr"/>
       <c r="F2674" t="inlineStr"/>
       <c r="G2674" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2675">
       <c r="A2675" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2675" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJUN/20</t>
+          <t>Core PCE Price Index MoMMAY</t>
         </is>
       </c>
       <c r="C2675" t="inlineStr"/>
       <c r="D2675" t="inlineStr">
         <is>
-          <t>-2.6%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E2675" t="inlineStr"/>
-      <c r="F2675" t="inlineStr"/>
+      <c r="F2675" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G2675" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2676">
       <c r="A2676" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2676" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJUN/20</t>
+          <t>Personal Income MoMMAY</t>
         </is>
       </c>
       <c r="C2676" t="inlineStr"/>
       <c r="D2676" t="inlineStr">
         <is>
-          <t>248.1</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="E2676" t="inlineStr"/>
-      <c r="F2676" t="inlineStr"/>
+      <c r="F2676" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="G2676" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2677">
       <c r="A2677" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2677" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJUN/20</t>
+          <t>Personal Spending MoMMAY</t>
         </is>
       </c>
       <c r="C2677" t="inlineStr"/>
       <c r="D2677" t="inlineStr">
         <is>
-          <t>692.4</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E2677" t="inlineStr"/>
-      <c r="F2677" t="inlineStr"/>
+      <c r="F2677" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G2677" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2678">
       <c r="A2678" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2678" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJUN/20</t>
+          <t>PCE Price Index MoMMAY</t>
         </is>
       </c>
       <c r="C2678" t="inlineStr"/>
       <c r="D2678" t="inlineStr">
         <is>
-          <t>165.8</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E2678" t="inlineStr"/>
-      <c r="F2678" t="inlineStr"/>
+      <c r="F2678" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G2678" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2679">
       <c r="A2679" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2679" t="inlineStr">
         <is>
-          <t>New Home SalesMAY</t>
+          <t>PCE Price Index YoYMAY</t>
         </is>
       </c>
       <c r="C2679" t="inlineStr"/>
       <c r="D2679" t="inlineStr">
         <is>
-          <t>0.743M</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="E2679" t="inlineStr"/>
       <c r="F2679" t="inlineStr">
         <is>
-          <t>0.7M</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="G2679" t="inlineStr">
@@ -73253,49 +73321,45 @@
     <row r="2680">
       <c r="A2680" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2680" t="inlineStr">
         <is>
-          <t>New Home Sales MoMMAY</t>
+          <t>Core PCE Price Index YoYMAY</t>
         </is>
       </c>
       <c r="C2680" t="inlineStr"/>
       <c r="D2680" t="inlineStr">
         <is>
-          <t>10.9%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="E2680" t="inlineStr"/>
       <c r="F2680" t="inlineStr">
         <is>
-          <t>-5.8%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="G2680" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2681">
       <c r="A2681" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B2681" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJUN/20</t>
+          <t>Fed Hammack Speech</t>
         </is>
       </c>
       <c r="C2681" t="inlineStr"/>
-      <c r="D2681" t="inlineStr">
-        <is>
-          <t>-11.473M</t>
-        </is>
-      </c>
+      <c r="D2681" t="inlineStr"/>
       <c r="E2681" t="inlineStr"/>
       <c r="F2681" t="inlineStr"/>
       <c r="G2681" t="inlineStr">
@@ -73307,22 +73371,30 @@
     <row r="2682">
       <c r="A2682" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2682" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJUN/20</t>
+          <t>Michigan Consumer Sentiment FinalJUN</t>
         </is>
       </c>
       <c r="C2682" t="inlineStr"/>
       <c r="D2682" t="inlineStr">
         <is>
-          <t>0.209M</t>
-        </is>
-      </c>
-      <c r="E2682" t="inlineStr"/>
-      <c r="F2682" t="inlineStr"/>
+          <t>52.2</t>
+        </is>
+      </c>
+      <c r="E2682" t="inlineStr">
+        <is>
+          <t>60.5</t>
+        </is>
+      </c>
+      <c r="F2682" t="inlineStr">
+        <is>
+          <t>60.5</t>
+        </is>
+      </c>
       <c r="G2682" t="inlineStr">
         <is>
           <t>2</t>
@@ -73332,22 +73404,30 @@
     <row r="2683">
       <c r="A2683" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2683" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJUN/20</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJUN</t>
         </is>
       </c>
       <c r="C2683" t="inlineStr"/>
       <c r="D2683" t="inlineStr">
         <is>
-          <t>-1.747M</t>
-        </is>
-      </c>
-      <c r="E2683" t="inlineStr"/>
-      <c r="F2683" t="inlineStr"/>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="E2683" t="inlineStr">
+        <is>
+          <t>4.1%</t>
+        </is>
+      </c>
+      <c r="F2683" t="inlineStr">
+        <is>
+          <t>4.1%</t>
+        </is>
+      </c>
       <c r="G2683" t="inlineStr">
         <is>
           <t>3</t>
@@ -73357,22 +73437,30 @@
     <row r="2684">
       <c r="A2684" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2684" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUN/20</t>
+          <t>Michigan Consumer Expectations FinalJUN</t>
         </is>
       </c>
       <c r="C2684" t="inlineStr"/>
       <c r="D2684" t="inlineStr">
         <is>
-          <t>-0.995M</t>
-        </is>
-      </c>
-      <c r="E2684" t="inlineStr"/>
-      <c r="F2684" t="inlineStr"/>
+          <t>47.9</t>
+        </is>
+      </c>
+      <c r="E2684" t="inlineStr">
+        <is>
+          <t>58.4</t>
+        </is>
+      </c>
+      <c r="F2684" t="inlineStr">
+        <is>
+          <t>58.4</t>
+        </is>
+      </c>
       <c r="G2684" t="inlineStr">
         <is>
           <t>3</t>
@@ -73382,22 +73470,30 @@
     <row r="2685">
       <c r="A2685" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2685" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJUN/20</t>
+          <t>Michigan Current Conditions FinalJUN</t>
         </is>
       </c>
       <c r="C2685" t="inlineStr"/>
       <c r="D2685" t="inlineStr">
         <is>
-          <t>0.077M</t>
-        </is>
-      </c>
-      <c r="E2685" t="inlineStr"/>
-      <c r="F2685" t="inlineStr"/>
+          <t>58.9</t>
+        </is>
+      </c>
+      <c r="E2685" t="inlineStr">
+        <is>
+          <t>63.7</t>
+        </is>
+      </c>
+      <c r="F2685" t="inlineStr">
+        <is>
+          <t>63.7</t>
+        </is>
+      </c>
       <c r="G2685" t="inlineStr">
         <is>
           <t>3</t>
@@ -73407,22 +73503,30 @@
     <row r="2686">
       <c r="A2686" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2686" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJUN/20</t>
+          <t>Michigan Inflation Expectations FinalJUN</t>
         </is>
       </c>
       <c r="C2686" t="inlineStr"/>
       <c r="D2686" t="inlineStr">
         <is>
-          <t>0.514M</t>
-        </is>
-      </c>
-      <c r="E2686" t="inlineStr"/>
-      <c r="F2686" t="inlineStr"/>
+          <t>6.6%</t>
+        </is>
+      </c>
+      <c r="E2686" t="inlineStr">
+        <is>
+          <t>5.1%</t>
+        </is>
+      </c>
+      <c r="F2686" t="inlineStr">
+        <is>
+          <t>5.1%</t>
+        </is>
+      </c>
       <c r="G2686" t="inlineStr">
         <is>
           <t>3</t>
@@ -73432,20 +73536,16 @@
     <row r="2687">
       <c r="A2687" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2687" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJUN/20</t>
+          <t>Baker Hughes Oil Rig CountJUN/27</t>
         </is>
       </c>
       <c r="C2687" t="inlineStr"/>
-      <c r="D2687" t="inlineStr">
-        <is>
-          <t>0.386M</t>
-        </is>
-      </c>
+      <c r="D2687" t="inlineStr"/>
       <c r="E2687" t="inlineStr"/>
       <c r="F2687" t="inlineStr"/>
       <c r="G2687" t="inlineStr">
@@ -73457,20 +73557,16 @@
     <row r="2688">
       <c r="A2688" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2688" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJUN/20</t>
+          <t>Baker Hughes Total Rigs CountJUN/27</t>
         </is>
       </c>
       <c r="C2688" t="inlineStr"/>
-      <c r="D2688" t="inlineStr">
-        <is>
-          <t>0.152M</t>
-        </is>
-      </c>
+      <c r="D2688" t="inlineStr"/>
       <c r="E2688" t="inlineStr"/>
       <c r="F2688" t="inlineStr"/>
       <c r="G2688" t="inlineStr">
@@ -73482,1477 +73578,28 @@
     <row r="2689">
       <c r="A2689" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2689" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJUN/20</t>
-        </is>
-      </c>
+          <t>Saturday June 28 2025</t>
+        </is>
+      </c>
+      <c r="B2689" t="inlineStr"/>
       <c r="C2689" t="inlineStr"/>
-      <c r="D2689" t="inlineStr">
-        <is>
-          <t>-0.364M</t>
-        </is>
-      </c>
+      <c r="D2689" t="inlineStr"/>
       <c r="E2689" t="inlineStr"/>
       <c r="F2689" t="inlineStr"/>
-      <c r="G2689" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2689" t="inlineStr"/>
     </row>
     <row r="2690">
       <c r="A2690" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2690" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
+          <t>Sunday June 29 2025</t>
+        </is>
+      </c>
+      <c r="B2690" t="inlineStr"/>
       <c r="C2690" t="inlineStr"/>
       <c r="D2690" t="inlineStr"/>
       <c r="E2690" t="inlineStr"/>
       <c r="F2690" t="inlineStr"/>
-      <c r="G2690" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2691">
-      <c r="A2691" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2691" t="inlineStr">
-        <is>
-          <t>5-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C2691" t="inlineStr"/>
-      <c r="D2691" t="inlineStr">
-        <is>
-          <t>4.071%</t>
-        </is>
-      </c>
-      <c r="E2691" t="inlineStr"/>
-      <c r="F2691" t="inlineStr"/>
-      <c r="G2691" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2692">
-      <c r="A2692" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2692" t="inlineStr">
-        <is>
-          <t>2-Year FRN Auction</t>
-        </is>
-      </c>
-      <c r="C2692" t="inlineStr"/>
-      <c r="D2692" t="inlineStr">
-        <is>
-          <t>0.144%</t>
-        </is>
-      </c>
-      <c r="E2692" t="inlineStr"/>
-      <c r="F2692" t="inlineStr"/>
-      <c r="G2692" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2693">
-      <c r="A2693" t="inlineStr"/>
-      <c r="B2693" t="inlineStr">
-        <is>
-          <t>Building Permits FinalMAY</t>
-        </is>
-      </c>
-      <c r="C2693" t="inlineStr"/>
-      <c r="D2693" t="inlineStr">
-        <is>
-          <t>1.422M</t>
-        </is>
-      </c>
-      <c r="E2693" t="inlineStr">
-        <is>
-          <t>1.393M</t>
-        </is>
-      </c>
-      <c r="F2693" t="inlineStr">
-        <is>
-          <t>1.393M</t>
-        </is>
-      </c>
-      <c r="G2693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2694">
-      <c r="A2694" t="inlineStr"/>
-      <c r="B2694" t="inlineStr">
-        <is>
-          <t>Building Permits MoM FinalMAY</t>
-        </is>
-      </c>
-      <c r="C2694" t="inlineStr"/>
-      <c r="D2694" t="inlineStr">
-        <is>
-          <t>-4%</t>
-        </is>
-      </c>
-      <c r="E2694" t="inlineStr">
-        <is>
-          <t>-2%</t>
-        </is>
-      </c>
-      <c r="F2694" t="inlineStr">
-        <is>
-          <t>-2.0%</t>
-        </is>
-      </c>
-      <c r="G2694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2695">
-      <c r="A2695" t="inlineStr">
-        <is>
-          <t>Thursday June 26 2025</t>
-        </is>
-      </c>
-      <c r="B2695" t="inlineStr"/>
-      <c r="C2695" t="inlineStr"/>
-      <c r="D2695" t="inlineStr"/>
-      <c r="E2695" t="inlineStr"/>
-      <c r="F2695" t="inlineStr"/>
-      <c r="G2695" t="inlineStr"/>
-    </row>
-    <row r="2696">
-      <c r="A2696" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B2696" t="inlineStr">
-        <is>
-          <t>Fed Barkin Speech</t>
-        </is>
-      </c>
-      <c r="C2696" t="inlineStr"/>
-      <c r="D2696" t="inlineStr"/>
-      <c r="E2696" t="inlineStr"/>
-      <c r="F2696" t="inlineStr"/>
-      <c r="G2696" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2697">
-      <c r="A2697" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2697" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2697" t="inlineStr"/>
-      <c r="D2697" t="inlineStr">
-        <is>
-          <t>-6.3%</t>
-        </is>
-      </c>
-      <c r="E2697" t="inlineStr"/>
-      <c r="F2697" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2697" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2698">
-      <c r="A2698" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2698" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate QoQ FinalQ1</t>
-        </is>
-      </c>
-      <c r="C2698" t="inlineStr"/>
-      <c r="D2698" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E2698" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F2698" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="G2698" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2699">
-      <c r="A2699" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2699" t="inlineStr">
-        <is>
-          <t>Chicago Fed National Activity IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2699" t="inlineStr"/>
-      <c r="D2699" t="inlineStr">
-        <is>
-          <t>-0.25</t>
-        </is>
-      </c>
-      <c r="E2699" t="inlineStr"/>
-      <c r="F2699" t="inlineStr">
-        <is>
-          <t>-0.1</t>
-        </is>
-      </c>
-      <c r="G2699" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2700">
-      <c r="A2700" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2700" t="inlineStr">
-        <is>
-          <t>Corporate Profits QoQ FinalQ1</t>
-        </is>
-      </c>
-      <c r="C2700" t="inlineStr"/>
-      <c r="D2700" t="inlineStr">
-        <is>
-          <t>5.9%</t>
-        </is>
-      </c>
-      <c r="E2700" t="inlineStr">
-        <is>
-          <t>-3.6%</t>
-        </is>
-      </c>
-      <c r="F2700" t="inlineStr">
-        <is>
-          <t>-3.6%</t>
-        </is>
-      </c>
-      <c r="G2700" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2701">
-      <c r="A2701" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2701" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders Ex Transp MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2701" t="inlineStr"/>
-      <c r="D2701" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E2701" t="inlineStr"/>
-      <c r="F2701" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G2701" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2702">
-      <c r="A2702" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2702" t="inlineStr">
-        <is>
-          <t>GDP Price Index QoQ FinalQ1</t>
-        </is>
-      </c>
-      <c r="C2702" t="inlineStr"/>
-      <c r="D2702" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="E2702" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="F2702" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="G2702" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2703">
-      <c r="A2703" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2703" t="inlineStr">
-        <is>
-          <t>Goods Trade Balance AdvMAY</t>
-        </is>
-      </c>
-      <c r="C2703" t="inlineStr"/>
-      <c r="D2703" t="inlineStr">
-        <is>
-          <t>$-87.62B</t>
-        </is>
-      </c>
-      <c r="E2703" t="inlineStr"/>
-      <c r="F2703" t="inlineStr">
-        <is>
-          <t>$-81.0B</t>
-        </is>
-      </c>
-      <c r="G2703" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2704">
-      <c r="A2704" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2704" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJUN/21</t>
-        </is>
-      </c>
-      <c r="C2704" t="inlineStr"/>
-      <c r="D2704" t="inlineStr">
-        <is>
-          <t>245K</t>
-        </is>
-      </c>
-      <c r="E2704" t="inlineStr"/>
-      <c r="F2704" t="inlineStr">
-        <is>
-          <t>247.0K</t>
-        </is>
-      </c>
-      <c r="G2704" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2705">
-      <c r="A2705" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2705" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoM AdvMAY</t>
-        </is>
-      </c>
-      <c r="C2705" t="inlineStr"/>
-      <c r="D2705" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E2705" t="inlineStr"/>
-      <c r="F2705" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2705" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2706">
-      <c r="A2706" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2706" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoM AdvMAY</t>
-        </is>
-      </c>
-      <c r="C2706" t="inlineStr"/>
-      <c r="D2706" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E2706" t="inlineStr"/>
-      <c r="F2706" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2706" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2707">
-      <c r="A2707" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2707" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJUN/14</t>
-        </is>
-      </c>
-      <c r="C2707" t="inlineStr"/>
-      <c r="D2707" t="inlineStr">
-        <is>
-          <t>1945K</t>
-        </is>
-      </c>
-      <c r="E2707" t="inlineStr"/>
-      <c r="F2707" t="inlineStr">
-        <is>
-          <t>1947.0K</t>
-        </is>
-      </c>
-      <c r="G2707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2708">
-      <c r="A2708" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2708" t="inlineStr">
-        <is>
-          <t>Core PCE Prices QoQ FinalQ1</t>
-        </is>
-      </c>
-      <c r="C2708" t="inlineStr"/>
-      <c r="D2708" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="E2708" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="F2708" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G2708" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2709">
-      <c r="A2709" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2709" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders ex Defense MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2709" t="inlineStr"/>
-      <c r="D2709" t="inlineStr">
-        <is>
-          <t>-7.5%</t>
-        </is>
-      </c>
-      <c r="E2709" t="inlineStr"/>
-      <c r="F2709" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G2709" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2710">
-      <c r="A2710" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2710" t="inlineStr">
-        <is>
-          <t>GDP Sales QoQ FinalQ1</t>
-        </is>
-      </c>
-      <c r="C2710" t="inlineStr"/>
-      <c r="D2710" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E2710" t="inlineStr">
-        <is>
-          <t>-2.9%</t>
-        </is>
-      </c>
-      <c r="F2710" t="inlineStr">
-        <is>
-          <t>-2.9%</t>
-        </is>
-      </c>
-      <c r="G2710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2711">
-      <c r="A2711" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2711" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJUN/21</t>
-        </is>
-      </c>
-      <c r="C2711" t="inlineStr"/>
-      <c r="D2711" t="inlineStr">
-        <is>
-          <t>245.5K</t>
-        </is>
-      </c>
-      <c r="E2711" t="inlineStr"/>
-      <c r="F2711" t="inlineStr">
-        <is>
-          <t>247.0K</t>
-        </is>
-      </c>
-      <c r="G2711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2712">
-      <c r="A2712" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2712" t="inlineStr">
-        <is>
-          <t>Non Defense Goods Orders Ex AirMAY</t>
-        </is>
-      </c>
-      <c r="C2712" t="inlineStr"/>
-      <c r="D2712" t="inlineStr">
-        <is>
-          <t>-1.3%</t>
-        </is>
-      </c>
-      <c r="E2712" t="inlineStr"/>
-      <c r="F2712" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2712" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2713">
-      <c r="A2713" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2713" t="inlineStr">
-        <is>
-          <t>PCE Prices QoQ FinalQ1</t>
-        </is>
-      </c>
-      <c r="C2713" t="inlineStr"/>
-      <c r="D2713" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E2713" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="F2713" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="G2713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2714">
-      <c r="A2714" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2714" t="inlineStr">
-        <is>
-          <t>Real Consumer Spending QoQ FinalQ1</t>
-        </is>
-      </c>
-      <c r="C2714" t="inlineStr"/>
-      <c r="D2714" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E2714" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="F2714" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="G2714" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2715">
-      <c r="A2715" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B2715" t="inlineStr">
-        <is>
-          <t>Fed Hammack Speech</t>
-        </is>
-      </c>
-      <c r="C2715" t="inlineStr"/>
-      <c r="D2715" t="inlineStr"/>
-      <c r="E2715" t="inlineStr"/>
-      <c r="F2715" t="inlineStr"/>
-      <c r="G2715" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2716">
-      <c r="A2716" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2716" t="inlineStr">
-        <is>
-          <t>Pending Home Sales MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2716" t="inlineStr"/>
-      <c r="D2716" t="inlineStr">
-        <is>
-          <t>-6.3%</t>
-        </is>
-      </c>
-      <c r="E2716" t="inlineStr"/>
-      <c r="F2716" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="G2716" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2717">
-      <c r="A2717" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2717" t="inlineStr">
-        <is>
-          <t>Pending Home Sales YoYMAY</t>
-        </is>
-      </c>
-      <c r="C2717" t="inlineStr"/>
-      <c r="D2717" t="inlineStr">
-        <is>
-          <t>-2.5%</t>
-        </is>
-      </c>
-      <c r="E2717" t="inlineStr"/>
-      <c r="F2717" t="inlineStr">
-        <is>
-          <t>-2.1%</t>
-        </is>
-      </c>
-      <c r="G2717" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2718">
-      <c r="A2718" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2718" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJUN/20</t>
-        </is>
-      </c>
-      <c r="C2718" t="inlineStr"/>
-      <c r="D2718" t="inlineStr">
-        <is>
-          <t>95Bcf</t>
-        </is>
-      </c>
-      <c r="E2718" t="inlineStr"/>
-      <c r="F2718" t="inlineStr"/>
-      <c r="G2718" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2719">
-      <c r="A2719" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2719" t="inlineStr">
-        <is>
-          <t>Kansas Fed Composite IndexJUN</t>
-        </is>
-      </c>
-      <c r="C2719" t="inlineStr"/>
-      <c r="D2719" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="E2719" t="inlineStr"/>
-      <c r="F2719" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="G2719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2720">
-      <c r="A2720" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2720" t="inlineStr">
-        <is>
-          <t>Kansas Fed Manufacturing IndexJUN</t>
-        </is>
-      </c>
-      <c r="C2720" t="inlineStr"/>
-      <c r="D2720" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="E2720" t="inlineStr"/>
-      <c r="F2720" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="G2720" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2721">
-      <c r="A2721" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2721" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2721" t="inlineStr"/>
-      <c r="D2721" t="inlineStr"/>
-      <c r="E2721" t="inlineStr"/>
-      <c r="F2721" t="inlineStr"/>
-      <c r="G2721" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2722">
-      <c r="A2722" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2722" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2722" t="inlineStr"/>
-      <c r="D2722" t="inlineStr"/>
-      <c r="E2722" t="inlineStr"/>
-      <c r="F2722" t="inlineStr"/>
-      <c r="G2722" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2723">
-      <c r="A2723" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2723" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJUN/26</t>
-        </is>
-      </c>
-      <c r="C2723" t="inlineStr"/>
-      <c r="D2723" t="inlineStr"/>
-      <c r="E2723" t="inlineStr"/>
-      <c r="F2723" t="inlineStr"/>
-      <c r="G2723" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2724">
-      <c r="A2724" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2724" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJUN/26</t>
-        </is>
-      </c>
-      <c r="C2724" t="inlineStr"/>
-      <c r="D2724" t="inlineStr">
-        <is>
-          <t>6.81%</t>
-        </is>
-      </c>
-      <c r="E2724" t="inlineStr"/>
-      <c r="F2724" t="inlineStr"/>
-      <c r="G2724" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2725">
-      <c r="A2725" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2725" t="inlineStr">
-        <is>
-          <t>7-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C2725" t="inlineStr"/>
-      <c r="D2725" t="inlineStr">
-        <is>
-          <t>4.194%</t>
-        </is>
-      </c>
-      <c r="E2725" t="inlineStr"/>
-      <c r="F2725" t="inlineStr"/>
-      <c r="G2725" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2726">
-      <c r="A2726" t="inlineStr">
-        <is>
-          <t>Friday June 27 2025</t>
-        </is>
-      </c>
-      <c r="B2726" t="inlineStr"/>
-      <c r="C2726" t="inlineStr"/>
-      <c r="D2726" t="inlineStr"/>
-      <c r="E2726" t="inlineStr"/>
-      <c r="F2726" t="inlineStr"/>
-      <c r="G2726" t="inlineStr"/>
-    </row>
-    <row r="2727">
-      <c r="A2727" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2727" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJUN/25</t>
-        </is>
-      </c>
-      <c r="C2727" t="inlineStr"/>
-      <c r="D2727" t="inlineStr"/>
-      <c r="E2727" t="inlineStr"/>
-      <c r="F2727" t="inlineStr"/>
-      <c r="G2727" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2728">
-      <c r="A2728" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2728" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2728" t="inlineStr"/>
-      <c r="D2728" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2728" t="inlineStr"/>
-      <c r="F2728" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2728" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2729">
-      <c r="A2729" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2729" t="inlineStr">
-        <is>
-          <t>Personal Income MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2729" t="inlineStr"/>
-      <c r="D2729" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E2729" t="inlineStr"/>
-      <c r="F2729" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="G2729" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2730">
-      <c r="A2730" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2730" t="inlineStr">
-        <is>
-          <t>Personal Spending MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2730" t="inlineStr"/>
-      <c r="D2730" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E2730" t="inlineStr"/>
-      <c r="F2730" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2730" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2731">
-      <c r="A2731" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2731" t="inlineStr">
-        <is>
-          <t>PCE Price Index MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2731" t="inlineStr"/>
-      <c r="D2731" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2731" t="inlineStr"/>
-      <c r="F2731" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2731" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2732">
-      <c r="A2732" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2732" t="inlineStr">
-        <is>
-          <t>PCE Price Index YoYMAY</t>
-        </is>
-      </c>
-      <c r="C2732" t="inlineStr"/>
-      <c r="D2732" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="E2732" t="inlineStr"/>
-      <c r="F2732" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="G2732" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2733">
-      <c r="A2733" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2733" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index YoYMAY</t>
-        </is>
-      </c>
-      <c r="C2733" t="inlineStr"/>
-      <c r="D2733" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="E2733" t="inlineStr"/>
-      <c r="F2733" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="G2733" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2734">
-      <c r="A2734" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2734" t="inlineStr">
-        <is>
-          <t>Fed Hammack Speech</t>
-        </is>
-      </c>
-      <c r="C2734" t="inlineStr"/>
-      <c r="D2734" t="inlineStr"/>
-      <c r="E2734" t="inlineStr"/>
-      <c r="F2734" t="inlineStr"/>
-      <c r="G2734" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2735">
-      <c r="A2735" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2735" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment FinalJUN</t>
-        </is>
-      </c>
-      <c r="C2735" t="inlineStr"/>
-      <c r="D2735" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="E2735" t="inlineStr">
-        <is>
-          <t>60.5</t>
-        </is>
-      </c>
-      <c r="F2735" t="inlineStr">
-        <is>
-          <t>60.5</t>
-        </is>
-      </c>
-      <c r="G2735" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2736">
-      <c r="A2736" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2736" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJUN</t>
-        </is>
-      </c>
-      <c r="C2736" t="inlineStr"/>
-      <c r="D2736" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E2736" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="F2736" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="G2736" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2737">
-      <c r="A2737" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2737" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations FinalJUN</t>
-        </is>
-      </c>
-      <c r="C2737" t="inlineStr"/>
-      <c r="D2737" t="inlineStr">
-        <is>
-          <t>47.9</t>
-        </is>
-      </c>
-      <c r="E2737" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
-      <c r="F2737" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
-      <c r="G2737" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2738">
-      <c r="A2738" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2738" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions FinalJUN</t>
-        </is>
-      </c>
-      <c r="C2738" t="inlineStr"/>
-      <c r="D2738" t="inlineStr">
-        <is>
-          <t>58.9</t>
-        </is>
-      </c>
-      <c r="E2738" t="inlineStr">
-        <is>
-          <t>63.7</t>
-        </is>
-      </c>
-      <c r="F2738" t="inlineStr">
-        <is>
-          <t>63.7</t>
-        </is>
-      </c>
-      <c r="G2738" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2739">
-      <c r="A2739" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2739" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations FinalJUN</t>
-        </is>
-      </c>
-      <c r="C2739" t="inlineStr"/>
-      <c r="D2739" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="E2739" t="inlineStr">
-        <is>
-          <t>5.1%</t>
-        </is>
-      </c>
-      <c r="F2739" t="inlineStr">
-        <is>
-          <t>5.1%</t>
-        </is>
-      </c>
-      <c r="G2739" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2740">
-      <c r="A2740" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2740" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUN/27</t>
-        </is>
-      </c>
-      <c r="C2740" t="inlineStr"/>
-      <c r="D2740" t="inlineStr"/>
-      <c r="E2740" t="inlineStr"/>
-      <c r="F2740" t="inlineStr"/>
-      <c r="G2740" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2741">
-      <c r="A2741" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2741" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUN/27</t>
-        </is>
-      </c>
-      <c r="C2741" t="inlineStr"/>
-      <c r="D2741" t="inlineStr"/>
-      <c r="E2741" t="inlineStr"/>
-      <c r="F2741" t="inlineStr"/>
-      <c r="G2741" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2742">
-      <c r="A2742" t="inlineStr">
-        <is>
-          <t>Saturday June 28 2025</t>
-        </is>
-      </c>
-      <c r="B2742" t="inlineStr"/>
-      <c r="C2742" t="inlineStr"/>
-      <c r="D2742" t="inlineStr"/>
-      <c r="E2742" t="inlineStr"/>
-      <c r="F2742" t="inlineStr"/>
-      <c r="G2742" t="inlineStr"/>
-    </row>
-    <row r="2743">
-      <c r="A2743" t="inlineStr">
-        <is>
-          <t>Sunday June 29 2025</t>
-        </is>
-      </c>
-      <c r="B2743" t="inlineStr"/>
-      <c r="C2743" t="inlineStr"/>
-      <c r="D2743" t="inlineStr"/>
-      <c r="E2743" t="inlineStr"/>
-      <c r="F2743" t="inlineStr"/>
-      <c r="G2743" t="inlineStr"/>
+      <c r="G2690" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
